--- a/2_data_input/unit_test/SALib_config.xlsx
+++ b/2_data_input/unit_test/SALib_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Ryoko and Hilary\SMSigxModel\analysis\2_data_input\unit_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E8604F-5838-43E0-A912-911EC009D780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060A0C3E-AB1C-4577-ACE4-01627CA2339B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="2205" windowWidth="19080" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fc_atm_press_fraction</t>
+    <t>alpha_fc</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -423,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
